--- a/output/combinedrepos/bicluster/combinedrepos-biconExprs.xlsx
+++ b/output/combinedrepos/bicluster/combinedrepos-biconExprs.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1960,4 +1965,7779 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/combinedrepos/bicluster/combinedrepos-biconExprs.xlsx
+++ b/output/combinedrepos/bicluster/combinedrepos-biconExprs.xlsx
@@ -13,6 +13,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combinedrepos11" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1967,6 +1973,4671 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -9740,4 +14411,4669 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Flaw_Rule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William_Desportes  </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michal_Cihar  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhura_Jayaratne  </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc_Delisle  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atul_Pratap_Singh  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viduranga_Wijesooriya  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouslan_Placella  </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyron_Madlener  </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deven_Bansod  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spun_Nakandala  </t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamim_Rezaie  </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bas_Brands  </t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Nicols  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaia_Anabitarte  </t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim_Hunt  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damyon_Wiese  </t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt_Porritt  </t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom_Dickman  </t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Monllao  </t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan_Wyllie  </t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina_Glancy  </t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Heywood  </t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nelson  </t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sam_marshall  </t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihail_Geshoski  </t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederic_Massart  </t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan_Leyva  </t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simey_Lameze  </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit_Agarwal  </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David_Mudrak  </t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameron_Ball  </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gthomas2  </t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilya_Tregubov  </t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun_Pataleta  </t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John_Okely  </t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan_Poltawski  </t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark_Nielsen  </t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brendan_Anderson  </t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel_Vedrine  </t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rossiani_Wijaya  </t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin_Chambers  </t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petr_Skoda  </t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nobelium  </t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew_Davis  </t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Hemelryk  </t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James_McQuillan  </t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuliya_Bozhko  </t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam_Chaffee  </t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayank_Gupa  </t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eloy_Lafuente_(stronk7)  </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas_Grabs  </t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dongsheng_Cai  </t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davo_Smith  </t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikhail_Golenkov  </t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara_Arjona  </t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen_Foster  </t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rajesh_Taneja  </t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">skodak  </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric_Merrill  </t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaki  </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony_Levi  </t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Eloy_Lafuente_(stronk7)</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moodler  </t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">donal72  </t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fiedorow  </t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">catch  </t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">effulgentsia  </t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webchick  </t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee_Rowlands  </t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex_Pott  </t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel_Catchpole  </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xjm  </t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabor_Hojtsy  </t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauri_Eskola  </t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris_McCafferty  </t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer_Hodgdon  </t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tim.plunkett  </t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel_Wehner  </t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dries_Buytaert  </t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angie_Byron  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>php:S905</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>javascript:S2259</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>php:S836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>php:S2201</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>php:S2068</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>php:S1764</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>javascript:S2137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>javascript:DuplicatePropertyName</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>javascript:S2819</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>javascript:S3981</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>javascript:S2583</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>javascript:S3812</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>javascript:S905</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>javascript:S3001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>javascript:S3403</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>php:S2964</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>javascript:S2201</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>php:S1848</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>php:S1656</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>php:S3923</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Web:BoldAndItalicTagsCheck</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>javascript:S2757</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>php:S1763</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>javascript:S2873</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>javascript:S1143</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javascript:UnreachableCode</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>php:S2053</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>javascript:S3785</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>php:S1862</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web:DoctypePresenceCheck</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Web:FieldsetWithoutLegendCheck</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>php:S4433</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>php:S2757</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Web:PageWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>javascript:S1656</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>php:S4830</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web:ImgWithoutAltCheck</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>javascript:S4043</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>php:S1145</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Web:UnsupportedTagsInHtml5Check</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Web:FrameWithoutTitleCheck</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>php:S4423</t>
+        </is>
+      </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>php:S3699</t>
+        </is>
+      </c>
+      <c r="BS44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>javascript:S2189</t>
+        </is>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>php:S2115</t>
+        </is>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>